--- a/Табель.xlsx
+++ b/Табель.xlsx
@@ -1815,93 +1815,98 @@
       <c r="AS18" s="104" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="101" t="n"/>
-      <c r="B19" s="101" t="n"/>
-      <c r="C19" s="101" t="n"/>
-      <c r="D19" s="101" t="n"/>
-      <c r="E19" s="101" t="n"/>
-      <c r="F19" s="101" t="n"/>
-      <c r="G19" s="101" t="n"/>
-      <c r="H19" s="101" t="n"/>
-      <c r="I19" s="101" t="n"/>
-      <c r="J19" s="101" t="n"/>
-      <c r="K19" s="101" t="n"/>
-      <c r="L19" s="101" t="n"/>
-      <c r="M19" s="101" t="n"/>
-      <c r="N19" s="101" t="n"/>
-      <c r="O19" s="101" t="n"/>
-      <c r="P19" s="101" t="n"/>
-      <c r="Q19" s="101" t="n"/>
-      <c r="R19" s="101" t="n"/>
-      <c r="S19" s="101" t="n"/>
-      <c r="T19" s="101" t="n"/>
-      <c r="U19" s="101" t="n"/>
-      <c r="V19" s="101" t="n"/>
-      <c r="W19" s="101" t="n"/>
-      <c r="X19" s="101" t="n"/>
-      <c r="Y19" s="101" t="n"/>
-      <c r="Z19" s="101" t="n"/>
-      <c r="AA19" s="101" t="n"/>
-      <c r="AB19" s="101" t="n"/>
-      <c r="AC19" s="101" t="n"/>
-      <c r="AD19" s="101" t="n"/>
-      <c r="AE19" s="101" t="n"/>
-      <c r="AF19" s="101" t="n"/>
-      <c r="AG19" s="101" t="n"/>
-      <c r="AH19" s="101" t="n"/>
-      <c r="AI19" s="101" t="n"/>
-      <c r="AJ19" s="101" t="n"/>
-      <c r="AK19" s="101" t="n"/>
-      <c r="AL19" s="101" t="n"/>
-      <c r="AM19" s="101" t="n"/>
-      <c r="AN19" s="101" t="n"/>
-      <c r="AO19" s="102" t="n"/>
-      <c r="AP19" s="102" t="n"/>
-      <c r="AQ19" s="102" t="n"/>
-      <c r="AR19" s="102" t="n"/>
-      <c r="AS19" s="102" t="n"/>
+      <c r="A19" s="103" t="n"/>
+      <c r="B19" s="103" t="n"/>
+      <c r="C19" s="103" t="n"/>
+      <c r="D19" s="103" t="n"/>
+      <c r="E19" s="103" t="n"/>
+      <c r="F19" s="103" t="n"/>
+      <c r="G19" s="103" t="n"/>
+      <c r="H19" s="103" t="n"/>
+      <c r="I19" s="103" t="n"/>
+      <c r="J19" s="103" t="n"/>
+      <c r="K19" s="103" t="n"/>
+      <c r="L19" s="103" t="n"/>
+      <c r="M19" s="103" t="n"/>
+      <c r="N19" s="103" t="n"/>
+      <c r="O19" s="103" t="n"/>
+      <c r="P19" s="103" t="n"/>
+      <c r="Q19" s="103" t="n"/>
+      <c r="R19" s="103" t="n"/>
+      <c r="S19" s="103" t="n"/>
+      <c r="T19" s="103" t="n"/>
+      <c r="U19" s="103" t="n"/>
+      <c r="V19" s="103" t="n"/>
+      <c r="W19" s="103" t="n"/>
+      <c r="X19" s="103" t="n"/>
+      <c r="Y19" s="103" t="n"/>
+      <c r="Z19" s="103" t="n"/>
+      <c r="AA19" s="103" t="n"/>
+      <c r="AB19" s="103" t="n"/>
+      <c r="AC19" s="103" t="n"/>
+      <c r="AD19" s="103" t="n"/>
+      <c r="AE19" s="103" t="n"/>
+      <c r="AF19" s="103" t="n"/>
+      <c r="AG19" s="103" t="n"/>
+      <c r="AH19" s="103" t="n"/>
+      <c r="AI19" s="103" t="n"/>
+      <c r="AJ19" s="103" t="n"/>
+      <c r="AK19" s="103" t="n"/>
+      <c r="AL19" s="103" t="n"/>
+      <c r="AM19" s="103" t="n"/>
+      <c r="AN19" s="103" t="n"/>
+      <c r="AO19" s="105" t="n"/>
+      <c r="AP19" s="105" t="n"/>
+      <c r="AQ19" s="105" t="n"/>
+      <c r="AR19" s="105" t="n"/>
+      <c r="AS19" s="105" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="101" t="n"/>
-      <c r="B20" s="101" t="n"/>
-      <c r="C20" s="101" t="n"/>
-      <c r="D20" s="101" t="n"/>
-      <c r="E20" s="101" t="n"/>
-      <c r="F20" s="101" t="n"/>
-      <c r="G20" s="101" t="n"/>
-      <c r="H20" s="101" t="n"/>
-      <c r="I20" s="101" t="n"/>
-      <c r="J20" s="101" t="n"/>
-      <c r="K20" s="101" t="n"/>
-      <c r="L20" s="101" t="n"/>
-      <c r="M20" s="101" t="n"/>
-      <c r="N20" s="101" t="n"/>
-      <c r="O20" s="101" t="n"/>
-      <c r="P20" s="101" t="n"/>
-      <c r="Q20" s="101" t="n"/>
-      <c r="R20" s="101" t="n"/>
-      <c r="S20" s="101" t="n"/>
-      <c r="T20" s="101" t="n"/>
-      <c r="U20" s="101" t="n"/>
-      <c r="V20" s="101" t="n"/>
-      <c r="W20" s="101" t="n"/>
-      <c r="X20" s="101" t="n"/>
-      <c r="Y20" s="101" t="n"/>
-      <c r="Z20" s="101" t="n"/>
-      <c r="AA20" s="101" t="n"/>
-      <c r="AB20" s="101" t="n"/>
-      <c r="AC20" s="101" t="n"/>
-      <c r="AD20" s="101" t="n"/>
-      <c r="AE20" s="101" t="n"/>
-      <c r="AF20" s="101" t="n"/>
-      <c r="AG20" s="101" t="n"/>
-      <c r="AH20" s="101" t="n"/>
-      <c r="AI20" s="101" t="n"/>
-      <c r="AJ20" s="101" t="n"/>
-      <c r="AK20" s="101" t="n"/>
-      <c r="AL20" s="101" t="n"/>
-      <c r="AM20" s="101" t="n"/>
-      <c r="AN20" s="101" t="n"/>
+      <c r="A20" s="104" t="n"/>
+      <c r="B20" s="104" t="n"/>
+      <c r="C20" s="104" t="n"/>
+      <c r="D20" s="103" t="n"/>
+      <c r="E20" s="103" t="n"/>
+      <c r="F20" s="103" t="n"/>
+      <c r="G20" s="103" t="n"/>
+      <c r="H20" s="103" t="n"/>
+      <c r="I20" s="103" t="n"/>
+      <c r="J20" s="103" t="n"/>
+      <c r="K20" s="103" t="n"/>
+      <c r="L20" s="103" t="n"/>
+      <c r="M20" s="103" t="n"/>
+      <c r="N20" s="103" t="n"/>
+      <c r="O20" s="103" t="n"/>
+      <c r="P20" s="103" t="n"/>
+      <c r="Q20" s="103" t="n"/>
+      <c r="R20" s="103" t="n"/>
+      <c r="S20" s="103" t="n"/>
+      <c r="T20" s="103" t="n"/>
+      <c r="U20" s="103" t="n"/>
+      <c r="V20" s="103" t="n"/>
+      <c r="W20" s="103" t="n"/>
+      <c r="X20" s="103" t="n"/>
+      <c r="Y20" s="103" t="n"/>
+      <c r="Z20" s="103" t="n"/>
+      <c r="AA20" s="103" t="n"/>
+      <c r="AB20" s="103" t="n"/>
+      <c r="AC20" s="103" t="n"/>
+      <c r="AD20" s="103" t="n"/>
+      <c r="AE20" s="103" t="n"/>
+      <c r="AF20" s="103" t="n"/>
+      <c r="AG20" s="103" t="n"/>
+      <c r="AH20" s="103" t="n"/>
+      <c r="AI20" s="103" t="n"/>
+      <c r="AJ20" s="104" t="n"/>
+      <c r="AK20" s="104" t="n"/>
+      <c r="AL20" s="104" t="n"/>
+      <c r="AM20" s="104" t="n"/>
+      <c r="AN20" s="104" t="n"/>
+      <c r="AO20" s="104" t="n"/>
+      <c r="AP20" s="104" t="n"/>
+      <c r="AQ20" s="104" t="n"/>
+      <c r="AR20" s="104" t="n"/>
+      <c r="AS20" s="104" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="101" t="n"/>
@@ -5558,7 +5563,7 @@
       <c r="AN107" s="101" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="94">
     <mergeCell ref="O9:O11"/>
     <mergeCell ref="P9:P11"/>
     <mergeCell ref="Q9:Q11"/>
@@ -5643,6 +5648,16 @@
     <mergeCell ref="AN17:AN18"/>
     <mergeCell ref="AO17:AO18"/>
     <mergeCell ref="AS17:AS18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AS19:AS20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
